--- a/biology/Médecine/1510_en_santé_et_médecine/1510_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1510_en_santé_et_médecine/1510_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1510_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1510_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1510 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1510_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1510_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 juillet : selon Tommasino Bianchi[1], apparition à Modène des premiers cas de ce qui est « peut-être la première pandémie reconnue de la maladie que nous appelons maintenant grippe[2] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 juillet : selon Tommasino Bianchi, apparition à Modène des premiers cas de ce qui est « peut-être la première pandémie reconnue de la maladie que nous appelons maintenant grippe ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1510_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1510_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Johann Salzmann fait imprimer à Vienne, par Jérôme Viétor (pl), son De praeservatione a pestilentia et ipsius cura (« De la préservation de la peste et de son traitement[3],[4] »).
-Nouvelle édition, chez Vincent de Portonariis à Lyon, du Compendium medicine de Gilbertus Anglicus (en)[5].
-Étude des muscles du bras droit et des os du pied par Léonard de Vinci[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Johann Salzmann fait imprimer à Vienne, par Jérôme Viétor (pl), son De praeservatione a pestilentia et ipsius cura (« De la préservation de la peste et de son traitement, »).
+Nouvelle édition, chez Vincent de Portonariis à Lyon, du Compendium medicine de Gilbertus Anglicus (en).
+Étude des muscles du bras droit et des os du pied par Léonard de Vinci.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1510_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1510_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,19 +589,21 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 octobre : John Caius (mort en 1573), médecin anglais[7].
-Giovanni Ingrassia (mort en 1580), anatomiste italien[8].
-René Martineau (mort en 1573), médecin français[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 octobre : John Caius (mort en 1573), médecin anglais.
+Giovanni Ingrassia (mort en 1580), anatomiste italien.
+René Martineau (mort en 1573), médecin français.
 Vers 1510 :
-Bartholomäus Carrichter (mort en 1567), médecin et astrologue suisse[10],[11].
-Bartolomeo Eustachi (mort en  1574), médecin anatomiste italien[12].
-Luigi Giglio (mort en 1576), médecin et astronome italien[13].
-Antoine Mizauld (mort en 1578), médecin et astrologue français[14].
-Ambroise Paré (mort en 1590), chirurgien et anatomiste français[15].
-1510 ou 1511[16] (ou 1499[17]) : Andrés Laguna (mort en 1559), médecin juif espagnol, auteur d'une traduction en castillan de la Matière médicale de Dioscoride imprimée en 1555 par Juan Latio à Anvers[16], au service du pape Jules III puis de Charles Quint et de Philippe II[17].
-Entre 1510 et 1520[18] (vers 1516[19]) : Realdo Colombo (mort en 1559), anatomiste lombard.
+Bartholomäus Carrichter (mort en 1567), médecin et astrologue suisse,.
+Bartolomeo Eustachi (mort en  1574), médecin anatomiste italien.
+Luigi Giglio (mort en 1576), médecin et astronome italien.
+Antoine Mizauld (mort en 1578), médecin et astrologue français.
+Ambroise Paré (mort en 1590), chirurgien et anatomiste français.
+1510 ou 1511 (ou 1499) : Andrés Laguna (mort en 1559), médecin juif espagnol, auteur d'une traduction en castillan de la Matière médicale de Dioscoride imprimée en 1555 par Juan Latio à Anvers, au service du pape Jules III puis de Charles Quint et de Philippe II.
+Entre 1510 et 1520 (vers 1516) : Realdo Colombo (mort en 1559), anatomiste lombard.
 </t>
         </is>
       </c>
